--- a/resource/课程计划.xlsx
+++ b/resource/课程计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,12 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1、地图、图层、Geometry、Symbol、Graphic、Render
-2、常用小控件，鹰眼、比例尺、图例等；
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>服务端图层调用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,20 +135,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1、动态地图；
-2、要素服务；
-3、影像服务；
-4、OGC服务标准；
-5、ArCServer原理；
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>创建三维地图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>加载地三方切片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WebGIS三维开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航拍与建模</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三维城市搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倾斜摄影、三维模型、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航拍技术要求与建模实操</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CesiumJS功能介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线三维城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他WebGIS框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leaflet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openlayers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>geoserver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QGIS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度、高德地图使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>echarts 地图使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、ArcGIS软件介绍；
+2、ArcMap使用操作；
+2、地图制图；
+3、地图修饰；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -165,70 +217,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WebGIS三维开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>概述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>航拍与建模</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三维城市搭建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倾斜摄影、三维模型、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>航拍技术要求与建模实操</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CesiumJS功能介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在线三维城市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他WebGIS框架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>leaflet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>openlayers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>geoserver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QGIS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百度、高德地图使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>echarts 地图使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、ArcGIS软件介绍；
-2、ArcMap使用操作；
-2、地图制图；
-3、地图修饰；</t>
+    <t xml:space="preserve">1、地图、图层、Geometry、Symbol、Graphic、Render
+2、常用小控件，鹰眼、比例尺、图例等；
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、动态地图；
+2、要素服务；
+3、影像服务；
+5、ArCServer原理；
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -301,12 +300,6 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -319,6 +312,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -628,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -640,71 +639,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
+      <c r="A4" s="7"/>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
+      <c r="A5" s="7"/>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>46</v>
+      <c r="C5" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
+      <c r="A6" s="7"/>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="6" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -712,153 +711,153 @@
       <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>30</v>
+      <c r="C9" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>19</v>
+      <c r="C10" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
-      <c r="B11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>27</v>
+      <c r="B11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
-      <c r="B12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>23</v>
+      <c r="B12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
-      <c r="B13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>29</v>
+      <c r="B13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
-      <c r="B14" s="8" t="s">
-        <v>24</v>
+      <c r="B14" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
+      <c r="B17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="7"/>
+      <c r="B18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="7"/>
+      <c r="B19" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="4" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="7"/>
+      <c r="B20" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="7"/>
+      <c r="B21" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
+    <row r="22" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
-      <c r="B20" s="8" t="s">
+      <c r="B22" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
-      <c r="B21" s="8" t="s">
+    <row r="23" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="7"/>
+      <c r="B23" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
+    <row r="24" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="7"/>
+      <c r="B24" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="8" t="s">
+    </row>
+    <row r="25" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="7"/>
+      <c r="B25" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="2"/>
-      <c r="B23" s="8" t="s">
+    <row r="26" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="7"/>
+      <c r="B26" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="2"/>
-      <c r="B24" s="8" t="s">
+    <row r="27" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="7"/>
+      <c r="B27" s="6" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="2"/>
-      <c r="B25" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
-      <c r="B26" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="2"/>
-      <c r="B27" s="8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15"/>
